--- a/docs/Mapping Spec Git.xlsx
+++ b/docs/Mapping Spec Git.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj.ramamoorthy\Desktop\Github Standards\test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3179A716-8CBA-4976-941B-615416481AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E7F38-2A6F-4DDD-9A8B-E0CE0AE66310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Markdown Format" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="Target to Source" sheetId="3" r:id="rId3"/>
     <sheet name="AGG_ITEM_PRIMARY_PLASTICS" sheetId="4" r:id="rId4"/>
     <sheet name="FACT_ITEM_SPECIFICATION_COMPONE" sheetId="5" r:id="rId5"/>
-    <sheet name="BDV_OBJECT_NAME" sheetId="7" r:id="rId6"/>
-    <sheet name="PL_OBJECT_NAME" sheetId="8" r:id="rId7"/>
-    <sheet name="Original Spec" sheetId="6" r:id="rId8"/>
+    <sheet name="RDV_OBJECT_NAME" sheetId="9" r:id="rId6"/>
+    <sheet name="BDV_OBJECT_NAME" sheetId="7" r:id="rId7"/>
+    <sheet name="PL_OBJECT_NAME" sheetId="8" r:id="rId8"/>
+    <sheet name="Original Spec" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="179">
   <si>
     <t>Source System</t>
   </si>
@@ -572,6 +573,9 @@
   </si>
   <si>
     <t>PL_OBJECT_NAME</t>
+  </si>
+  <si>
+    <t>RDV_OBJECT_NAME</t>
   </si>
 </sst>
 </file>
@@ -864,6 +868,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -874,18 +890,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,50 +1366,50 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="37">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="33" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="23">
@@ -1462,19 +1466,19 @@
       <c r="B9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1485,13 +1489,13 @@
       <c r="B10" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="34"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="28">
@@ -1611,38 +1615,38 @@
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="37">
+      <c r="A16" s="33">
         <v>12</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="33" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="28">
@@ -1802,11 +1806,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="C9:C10"/>
@@ -1815,14 +1822,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3038,6 +3042,378 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B73A09-435C-407A-A9F5-72F226AE6AE6}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C331D7F1-FE18-42BB-AEE6-7CF9FBCDA4AC}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3409,14 +3785,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF11601-9FBD-4F0A-87BA-A68EC5EFC7C2}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3781,7 +4157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/docs/Mapping Spec Git.xlsx
+++ b/docs/Mapping Spec Git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj.ramamoorthy\Desktop\Github Standards\test\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.wilkinson/Documents/GitHub/test/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E7F38-2A6F-4DDD-9A8B-E0CE0AE66310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB3DF17-6F5C-0C45-9CE0-04F68EB261C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18920" yWindow="-18160" windowWidth="28800" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Markdown Format" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,32 @@
     <sheet name="Target to Source" sheetId="3" r:id="rId3"/>
     <sheet name="AGG_ITEM_PRIMARY_PLASTICS" sheetId="4" r:id="rId4"/>
     <sheet name="FACT_ITEM_SPECIFICATION_COMPONE" sheetId="5" r:id="rId5"/>
-    <sheet name="RDV_OBJECT_NAME" sheetId="9" r:id="rId6"/>
-    <sheet name="BDV_OBJECT_NAME" sheetId="7" r:id="rId7"/>
-    <sheet name="PL_OBJECT_NAME" sheetId="8" r:id="rId8"/>
-    <sheet name="Original Spec" sheetId="6" r:id="rId9"/>
+    <sheet name="RDV_EXAMPLE" sheetId="10" r:id="rId6"/>
+    <sheet name="RDV_OBJECT_NAME" sheetId="9" r:id="rId7"/>
+    <sheet name="BDV_EXAMPLE" sheetId="11" r:id="rId8"/>
+    <sheet name="BDV_OBJECT_NAME" sheetId="7" r:id="rId9"/>
+    <sheet name="PL_OBJECT_NAME" sheetId="8" r:id="rId10"/>
+    <sheet name="Original Spec" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="281">
   <si>
     <t>Source System</t>
   </si>
@@ -577,12 +592,341 @@
   <si>
     <t>RDV_OBJECT_NAME</t>
   </si>
+  <si>
+    <t>ITEM_SPECIFICATION_EVOLVE_SAT</t>
+  </si>
+  <si>
+    <t>ADW_STAGE</t>
+  </si>
+  <si>
+    <t>EVOLVE_KAFKA_RAW_PRODUCT</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_NK1</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_NK2</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_NK3</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_STATUS</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_TITLE</t>
+  </si>
+  <si>
+    <t>ISMULTI_PACK_FLAG</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_HIST_AMENDMENT_CD</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_AMENDMENT_DT</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_AMENDMENT_COMMENTS</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_ACTUAL_LAUNCH_DT</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_RETAILER_APPROVAL_DT</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_OUT_OF_STORE_DT</t>
+  </si>
+  <si>
+    <t>ITEM_SPEC_FORMAT_SPEC_TYPE</t>
+  </si>
+  <si>
+    <t>EFFECTIVE_FROM_TS</t>
+  </si>
+  <si>
+    <t>Map to ret/specNumber/</t>
+  </si>
+  <si>
+    <t>Map to ret/specVersion/</t>
+  </si>
+  <si>
+    <t>Set to &lt;NOT POPULATED NK DEFAULT&gt;</t>
+  </si>
+  <si>
+    <t>ETL Generated</t>
+  </si>
+  <si>
+    <t>ret/productSpecificationStatus/status</t>
+  </si>
+  <si>
+    <t>ret/title/</t>
+  </si>
+  <si>
+    <t>ret/isMultipack/</t>
+  </si>
+  <si>
+    <t>ret/specTypeFormat/specType</t>
+  </si>
+  <si>
+    <t>ret/specificationSectionDetail/specificationSectionFoodMainDetailsSection/specificationHistory/amendmentDate</t>
+  </si>
+  <si>
+    <t>ret/specificationSectionDetail/specificationSectionFoodMainDetailsSection/specificationHistory/comments</t>
+  </si>
+  <si>
+    <t>ret/specificationSectionDetail/specificationSectionFoodMainDetailsSection/actualLaunchDate</t>
+  </si>
+  <si>
+    <t>ret/specificationSectionDetail/specificationSectionFoodMainDetailsSection/retailerApprovalDate</t>
+  </si>
+  <si>
+    <t>ret/specificationSectionDetail/specificationSectionFoodMainDetailsSection/outOfStoreDate</t>
+  </si>
+  <si>
+    <r>
+      <t>ret/specificationSectionDetail/specificationSection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MainDetailsSection/specificationHistory/id</t>
+    </r>
+  </si>
+  <si>
+    <t>See selection criteria &amp; source column</t>
+  </si>
+  <si>
+    <t>Populate with ~~</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_BR</t>
+  </si>
+  <si>
+    <t>Concatenation &amp; Union. See steps 1 to 3</t>
+  </si>
+  <si>
+    <t>AP, OP &amp; VALPAK</t>
+  </si>
+  <si>
+    <t>Multiple see step 1</t>
+  </si>
+  <si>
+    <t>VALID_FROM_DT</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>EVOLVE_SAT &amp; VALPAK</t>
+  </si>
+  <si>
+    <t>EFFECTIVE_FROM_TS, VALID_FROM_TS</t>
+  </si>
+  <si>
+    <t>VALID_TO_DT</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Union. See steps 1 to 3</t>
+  </si>
+  <si>
+    <t>ITEM_NK1, ITEM_CD</t>
+  </si>
+  <si>
+    <t>Multiple see step 7</t>
+  </si>
+  <si>
+    <t>SPECIFICATION_STATUS</t>
+  </si>
+  <si>
+    <t>COMPONENT_DESC</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_COMPONENT, ITEM_PACKAGING_COMPONENT_DESC, ITEM_PACKAGING_COMPONENT_DESC</t>
+  </si>
+  <si>
+    <t>COMPONENT_LEVEL_DESC</t>
+  </si>
+  <si>
+    <t>COMPONENT_MATERIAL_DESC</t>
+  </si>
+  <si>
+    <t>COMPONENT_EXTENDED_MATERIAL_DESC</t>
+  </si>
+  <si>
+    <t>COMPONENT_SPECIFICATION_DESC</t>
+  </si>
+  <si>
+    <t>RECYCLING_ADVICE_DESC</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>COMPONENT_COLOUR</t>
+  </si>
+  <si>
+    <t>COMPONENT_WEIGHT_GRAMS</t>
+  </si>
+  <si>
+    <t>CALCULATED_COMPONENT_WEIGHT_GRAMS</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>COMPONENT_RECYCLED_WEIGHT_GRAMS</t>
+  </si>
+  <si>
+    <t>CALCULATED_RECYCLED_WEIGHT_GRAMS</t>
+  </si>
+  <si>
+    <t>COMPONENT_RECYCLED_PCT</t>
+  </si>
+  <si>
+    <t>MULTIPACK_UNITS</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_RETAIL_UNITS_IN_SECONDARY_OR_TERTIARY_PACKAGING</t>
+  </si>
+  <si>
+    <t>COMPONENT_LENGTH_MM</t>
+  </si>
+  <si>
+    <t>COMPONENT_WIDTH_MM</t>
+  </si>
+  <si>
+    <t>COMPONENT_HEIGHT_MM</t>
+  </si>
+  <si>
+    <t>FOOD_CONTACT_FLAG</t>
+  </si>
+  <si>
+    <t>SINGLE_USE_PLASTIC_FLAG</t>
+  </si>
+  <si>
+    <t>LONG_TERM_STORAGE_FLAG</t>
+  </si>
+  <si>
+    <t>HOME_COMPOSTABLE_RECYCLE_FLAG</t>
+  </si>
+  <si>
+    <t>TAMPER_EVIDENT_FLAG</t>
+  </si>
+  <si>
+    <t>TAMPER_EVIDENT_FACT_FLAG</t>
+  </si>
+  <si>
+    <t>COMPONENT_SUPPLIER</t>
+  </si>
+  <si>
+    <t>COMPONENT_COUNTRY_OF_ORIGIN</t>
+  </si>
+  <si>
+    <t>COMPONENT_SUPPLIER_CERTIFICATION</t>
+  </si>
+  <si>
+    <t>AP &amp; VALPAK</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_LEVEL, PACKAGING_LEVEL_DESC, PACKAGING_LEVEL_DESC</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_BASE_MATERIAL_DESC, MATERIAL_DESC, MATERIAL_UNIFORM_CD</t>
+  </si>
+  <si>
+    <t>COMPONENT_EXTENDED_MATERIAL_DESC, MATERIAL_SPEC_TYPE, MATERIAL_UNIFORM_EXTENDED_MATERIAL</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_SPECIFICATION,ITEM_PACKAGING_COMPONENT_SPECIFICATION,</t>
+  </si>
+  <si>
+    <t>RECYCLING_ADVICE_ICON, MATERIAL_DESC,RECYCLING_ADVICE_CD</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_NUMBER_OF_RETAIL_UNITS_IN_SECONDARY_OR_TERTIARY_PACKAGING_COMPONENT</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_LENGTH_MM</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_WIDTH_MM</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_HEIGHT_MM</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_CLASSIFIED_AS_SINGLE_USE_PLASTIC</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_CLASSIFIED_AS_LONG_TERM_STORAGE_PACKAGING</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_INDUSTRIAL_COMPOSTABLE_TO_EN13432_DONT_RECYCLE</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_HOME_COMPOSTABLE_TO_OK_HOME_COMPOST_PROTOCAL_DONT_RECYCLE</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_TAMPER_EVIDENT</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_TAMPER_EVIDENT_FACTOR</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL_COMPOSTABLE_FLAG</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_COLOUR, MATERIAL_COLOUR</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_WEIGHT_OF_RECYCLED_GRAMS, RECYCLED_WEIGHT, AVERAGE_PACKAGING_RECYCLED_WEIGHT</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_PERCENT_POST_CONSUMER_RECYCLED_CONTENT, RECYCLED_PERCENT, RECYCLED_WEIGHT_PCT</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_NUMBER_OF_PRIMARY_PACKAGING_COMPONENTS_IN_EACH_RETAIL_UNIT_EG_MULTIPACK, MULTIPACK_VALUE</t>
+  </si>
+  <si>
+    <t>PACKAGING_COMPONENT_FOOD_CONTACT_IND, FOOD_CONTACT_FLAG</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_PACKAGING_SUPPLIER, PACKAGING_COMPONENT_SUPPLIER</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_COUNTRY_OF_ORIGIN, COMPONENT_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>PACKAGING_DETAIL_SUPPLIER_CERTIFICATION, CERTIFICATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +991,30 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,8 +1051,26 @@
         <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -768,11 +1152,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -868,6 +1267,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -909,6 +1329,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,47 +1661,1100 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1">
+    <row r="4" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.25" customHeight="1">
+    <row r="6" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25" customHeight="1">
+    <row r="7" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF11601-9FBD-4F0A-87BA-A68EC5EFC7C2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1273,20 +2768,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="156.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="156.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="140.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="140.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>99</v>
       </c>
@@ -1315,7 +2810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1342,7 +2837,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -1365,53 +2860,53 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="33">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="44" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="37" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
       <c r="B5" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+      <c r="G6" s="45"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -1436,7 +2931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <v>5</v>
       </c>
@@ -1459,45 +2954,45 @@
       <c r="H8" s="29"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="44" t="s">
         <v>117</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+      <c r="G10" s="45"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>7</v>
       </c>
@@ -1522,7 +3017,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>8</v>
       </c>
@@ -1547,7 +3042,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
         <v>9</v>
       </c>
@@ -1572,7 +3067,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28">
         <v>10</v>
       </c>
@@ -1597,7 +3092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>11</v>
       </c>
@@ -1614,41 +3109,41 @@
       <c r="H15" s="29"/>
       <c r="I15" s="26"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="33">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
         <v>12</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="44" t="s">
         <v>117</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="37" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+      <c r="G17" s="45"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <v>13</v>
       </c>
@@ -1673,7 +3168,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>14</v>
       </c>
@@ -1696,7 +3191,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28">
         <v>15</v>
       </c>
@@ -1719,7 +3214,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <v>16</v>
       </c>
@@ -1742,7 +3237,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <v>17</v>
       </c>
@@ -1765,7 +3260,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="26"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>18</v>
       </c>
@@ -1778,7 +3273,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="26"/>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>19</v>
       </c>
@@ -1791,7 +3286,7 @@
       <c r="H24" s="29"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <v>20</v>
       </c>
@@ -1841,17 +3336,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -1871,7 +3366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1891,7 +3386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1911,7 +3406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +3426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +3446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1">
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
@@ -1971,7 +3466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1991,7 +3486,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1">
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +3506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.95" customHeight="1">
+    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5" t="s">
@@ -2027,7 +3522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.95" customHeight="1">
+    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +3542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +3562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +3582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +3602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>11</v>
       </c>
@@ -2127,7 +3622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>76</v>
       </c>
@@ -2147,7 +3642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>76</v>
       </c>
@@ -2167,7 +3662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.95" customHeight="1">
+    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -2187,7 +3682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.95" customHeight="1">
+    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -2207,7 +3702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -2227,7 +3722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +3742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>76</v>
       </c>
@@ -2267,7 +3762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.95" customHeight="1">
+    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>76</v>
       </c>
@@ -2287,7 +3782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1">
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
@@ -2307,7 +3802,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1">
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +3822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1">
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -2347,7 +3842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1">
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
@@ -2381,18 +3876,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -2415,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +3933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +3956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +3979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +4002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -2530,7 +4025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -2553,7 +4048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +4071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +4094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +4117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -2645,7 +4140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2682,18 +4177,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -2716,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +4257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -2783,7 +4278,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2806,7 +4301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +4324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +4347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +4370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +4393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +4416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1">
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -2944,7 +4439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +4462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1">
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +4485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1">
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +4508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1">
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -3042,28 +4537,441 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B1031-05A8-C047-BBCD-5E55A00B7D95}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B73A09-435C-407A-A9F5-72F226AE6AE6}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -3086,7 +4994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3109,7 +5017,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -3132,7 +5040,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -3155,7 +5063,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3178,7 +5086,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -3201,7 +5109,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -3224,7 +5132,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -3247,7 +5155,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -3270,7 +5178,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -3293,7 +5201,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1">
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -3316,7 +5224,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -3339,7 +5247,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1">
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -3362,7 +5270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1">
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -3385,7 +5293,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1">
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +5321,879 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B322F8D-B0DF-314E-8AAE-E918D4D6829D}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C331D7F1-FE18-42BB-AEE6-7CF9FBCDA4AC}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3424,18 +6204,18 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -3458,7 +6238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3481,7 +6261,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +6284,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3527,7 +6307,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -3550,7 +6330,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -3573,7 +6353,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -3596,7 +6376,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +6399,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +6422,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -3665,7 +6445,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1">
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -3688,7 +6468,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3711,7 +6491,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1">
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +6514,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1">
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -3757,7 +6537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1">
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -3783,1057 +6563,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF11601-9FBD-4F0A-87BA-A68EC5EFC7C2}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>